--- a/biology/Botanique/Sapotille/Sapotille.xlsx
+++ b/biology/Botanique/Sapotille/Sapotille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiku, Corossol
 Le mot sapotille désigne plusieurs fruits et plantes dont les classifications botaniques sont très différentes.
@@ -512,13 +524,15 @@
           <t>Le sapotillier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sapotille est le fruit du sapotillier, Manilkara zapota de la famille des Sapotaceae.
 C'est un fruit à noyau également appelé chiku dans certains pays. En chinois, il est appelé 人心果 (rénxīnguǒ), en anglais sapodilla, et en khmer ល្មុត (lmout).
 C'est une baie ressemblant à une pomme ovoïde de 5 à 8 cm de diamètre à la peau brune et crevassée. Sa chair jaunâtre à brun rougeâtre est juteuse et succulente à maturité. Sa texture est granuleuse.
 Elle se consomme fraîche ou transformée en sirop ou en confiture, voire en jus.
-La saveur de ce fruit à maturité est très sucrée et comparable à du caramel[1].
+La saveur de ce fruit à maturité est très sucrée et comparable à du caramel.
 			Manilkara zapota ou sapotille
 			Manilkara zapota, chair non mûre et noyau de la sapotille
 			Manilkara zapota', chair mûre et noyau de la sapotille
@@ -551,7 +565,9 @@
           <t>Le corossol</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot sapotille désigne aussi, à l'Île de La Réunion, le fruit d'un arbuste communément appelé corossol, l'Annona muricata, qui, lui, est de la famille des Annonaceae.
 			Annona muricata, arbre en fruits
